--- a/EVM.xlsx
+++ b/EVM.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -172,20 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>見積*2h</t>
-    <rPh sb="0" eb="2">
-      <t>ミツモリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実際*2h</t>
-    <rPh sb="0" eb="2">
-      <t>ジッサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1人あたりの時間</t>
     <rPh sb="1" eb="2">
       <t>ヒト</t>
@@ -204,6 +191,90 @@
   </si>
   <si>
     <t>AC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積*2</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際*2</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC累積</t>
+    <rPh sb="2" eb="4">
+      <t>ルイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SV(スケジュール差異)=EV-PV</t>
+    <rPh sb="9" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CV(コスト差異)＝EV-AC</t>
+    <rPh sb="6" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI(スケジュール効率指数)＝EV/PV</t>
+    <rPh sb="10" eb="12">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラマイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPI(コスト効率指数)＝EV/AC</t>
+    <rPh sb="7" eb="9">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EAC=AC+(BAC-EV)/CPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト予想</t>
+    <rPh sb="3" eb="5">
+      <t>ヨソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>テストと#11</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -214,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +296,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -317,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,6 +430,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -366,6 +451,1132 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>EVM</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAF2-4F9F-B8D7-6E7C4B4B5A4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CAF2-4F9F-B8D7-6E7C4B4B5A4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CAF2-4F9F-B8D7-6E7C4B4B5A4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1246011968"/>
+        <c:axId val="1246015296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1246011968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246015296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1246015296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246011968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>233362</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N24"/>
+  <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N4:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -689,19 +1900,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
       <c r="N3" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
@@ -717,7 +1931,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="3">
-        <f>F3-$C$20</f>
+        <f t="shared" ref="F4:F13" si="0">F3-$C$20</f>
         <v>24.266666666666666</v>
       </c>
       <c r="G4" s="1">
@@ -744,11 +1958,11 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" s="10">
         <f>M4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
@@ -760,11 +1974,11 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E18" si="0">E4-C5</f>
+        <f t="shared" ref="E5:E18" si="1">E4-C5</f>
         <v>24</v>
       </c>
       <c r="F5" s="3">
-        <f>F4-$C$20</f>
+        <f t="shared" si="0"/>
         <v>22.533333333333331</v>
       </c>
       <c r="G5" s="1">
@@ -775,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I18" si="1">C5*2</f>
+        <f t="shared" ref="I5:I18" si="2">C5*2</f>
         <v>2</v>
       </c>
       <c r="J5" s="9">
@@ -783,7 +1997,7 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K18" si="2">H5*2</f>
+        <f t="shared" ref="K5:K18" si="3">H5*2</f>
         <v>2</v>
       </c>
       <c r="L5" s="9">
@@ -795,7 +2009,7 @@
       </c>
       <c r="N5" s="10">
         <f>N4+M5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
@@ -809,11 +2023,11 @@
         <v>8</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F6" s="3">
-        <f>F5-$C$20</f>
         <v>20.799999999999997</v>
       </c>
       <c r="G6" s="1">
@@ -824,27 +2038,27 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" ref="J6:J19" si="3">J5+I6</f>
-        <v>10</v>
-      </c>
-      <c r="K6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="J6" s="9">
+        <f t="shared" ref="J6:J18" si="4">J5+I6</f>
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="L6" s="9">
-        <f t="shared" ref="L6:L17" si="4">L5+K6</f>
+        <f t="shared" ref="L6:L17" si="5">L5+K6</f>
         <v>10</v>
       </c>
       <c r="M6">
         <v>9</v>
       </c>
       <c r="N6" s="10">
-        <f t="shared" ref="N6:N17" si="5">N5+M6</f>
-        <v>12</v>
+        <f t="shared" ref="N6:N17" si="6">N5+M6</f>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.4">
@@ -859,11 +2073,11 @@
         <v>8</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F7" s="3">
-        <f>F6-$C$20</f>
         <v>19.066666666666663</v>
       </c>
       <c r="G7" s="1">
@@ -874,27 +2088,27 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J7" s="9">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="K7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L7" s="9">
+      <c r="J7" s="9">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
       <c r="M7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N7" s="10">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
@@ -906,11 +2120,11 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F8" s="3">
-        <f>F7-$C$20</f>
         <v>17.333333333333329</v>
       </c>
       <c r="G8" s="1">
@@ -921,27 +2135,27 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J8" s="9">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="K8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L8" s="9">
+      <c r="J8" s="9">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
       <c r="M8">
         <v>6</v>
       </c>
       <c r="N8" s="10">
-        <f t="shared" si="5"/>
-        <v>30</v>
+        <f t="shared" si="6"/>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
@@ -953,11 +2167,11 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F9" s="3">
-        <f>F8-$C$20</f>
         <v>15.599999999999994</v>
       </c>
       <c r="G9" s="1">
@@ -968,27 +2182,27 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J9" s="9">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="M9">
         <v>6</v>
       </c>
       <c r="N9" s="10">
-        <f t="shared" si="5"/>
-        <v>36</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
@@ -1000,11 +2214,11 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F10" s="3">
-        <f>F9-$C$20</f>
         <v>13.86666666666666</v>
       </c>
       <c r="G10" s="1">
@@ -1015,27 +2229,27 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L10" s="9">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" s="10">
-        <f t="shared" si="5"/>
-        <v>37</v>
+        <f t="shared" si="6"/>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
@@ -1047,11 +2261,11 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F11" s="3">
-        <f>F10-$C$20</f>
         <v>12.133333333333326</v>
       </c>
       <c r="G11" s="1">
@@ -1062,27 +2276,27 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J11" s="9">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L11" s="9">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
@@ -1096,11 +2310,11 @@
         <v>8</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F12" s="3">
-        <f>F11-$C$20</f>
         <v>10.399999999999991</v>
       </c>
       <c r="G12" s="1">
@@ -1108,30 +2322,30 @@
         <v>11</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J12" s="9">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L12" s="9">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
       <c r="M12">
         <v>2</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="5"/>
-        <v>40</v>
+        <f t="shared" si="6"/>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.4">
@@ -1146,11 +2360,11 @@
         <v>8</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F13" s="3">
-        <f>F12-$C$20</f>
         <v>8.6666666666666572</v>
       </c>
       <c r="G13" s="1">
@@ -1161,27 +2375,27 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J13" s="9">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="5"/>
         <v>32</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L13" s="9">
-        <f t="shared" si="4"/>
-        <v>34</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="5"/>
-        <v>41</v>
+        <f t="shared" si="6"/>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
@@ -1193,11 +2407,11 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" ref="F14:F18" si="6">F13-$C$20</f>
+        <f t="shared" ref="F14:F18" si="7">F13-$C$20</f>
         <v>6.9333333333333238</v>
       </c>
       <c r="G14" s="1">
@@ -1208,31 +2422,31 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J14" s="9">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="5"/>
         <v>34</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L14" s="9">
-        <f t="shared" si="4"/>
-        <v>36</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="5"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5">
@@ -1240,38 +2454,42 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F15" s="3">
+        <f t="shared" si="7"/>
+        <v>5.1999999999999904</v>
+      </c>
+      <c r="G15" s="1">
+        <f>G14-C16</f>
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="6"/>
-        <v>5.1999999999999904</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="10">
-        <f t="shared" si="5"/>
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
@@ -1283,39 +2501,42 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.466666666666657</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <f>G15-C17</f>
+        <v>5</v>
+      </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J16" s="9">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="K16">
-        <f>H16*2</f>
         <v>4</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="5"/>
-        <v>43</v>
+        <f t="shared" si="6"/>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.4">
@@ -1329,39 +2550,39 @@
         <v>8</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7333333333333236</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J17" s="9">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="K17">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="J17" s="9">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L17" s="9">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="5"/>
-        <v>44</v>
+        <f t="shared" si="6"/>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.4">
@@ -1376,29 +2597,34 @@
         <v>10</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-9.7699626167013776E-15</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J18" s="9">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
@@ -1416,6 +2642,9 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="J19" s="9"/>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
@@ -1438,17 +2667,47 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="J21" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
       <c r="I23" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1456,4 +2715,197 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/EVM.xlsx
+++ b/EVM.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -275,6 +275,35 @@
   </si>
   <si>
     <t>テストと#11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人当たり</t>
+    <rPh sb="1" eb="3">
+      <t>ヒトア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3人当たり</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -528,7 +557,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7692038495188118E-2"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -537,11 +576,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$2</c:f>
+              <c:f>Sheet2!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PV</c:v>
+                  <c:v>pv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -560,54 +599,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$17</c:f>
+              <c:f>Sheet2!$F$3:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,11 +663,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$2</c:f>
+              <c:f>Sheet2!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EV</c:v>
+                  <c:v>ev</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -647,54 +686,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$17</c:f>
+              <c:f>Sheet2!$G$3:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,11 +750,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$2</c:f>
+              <c:f>Sheet2!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AC</c:v>
+                  <c:v>ac</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -734,54 +773,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$17</c:f>
+              <c:f>Sheet2!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,6 +949,7 @@
         <c:crossAx val="1246011968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="40"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1548,16 +1588,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>233362</xdr:rowOff>
+      <xdr:rowOff>223837</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1844,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N4:N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2719,15 +2759,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D17"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>42</v>
       </c>
@@ -2737,8 +2785,17 @@
       <c r="D2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2748,8 +2805,20 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <f>B3*3</f>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:H17" si="0">C3*3</f>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>4</v>
       </c>
@@ -2759,8 +2828,20 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <f t="shared" ref="F4:F17" si="1">B4*3</f>
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>10</v>
       </c>
@@ -2770,8 +2851,20 @@
       <c r="D5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>16</v>
       </c>
@@ -2781,8 +2874,20 @@
       <c r="D6">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>20</v>
       </c>
@@ -2792,8 +2897,20 @@
       <c r="D7">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>24</v>
       </c>
@@ -2803,8 +2920,20 @@
       <c r="D8">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>26</v>
       </c>
@@ -2814,8 +2943,20 @@
       <c r="D9">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>28</v>
       </c>
@@ -2825,8 +2966,20 @@
       <c r="D10">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>30</v>
       </c>
@@ -2836,8 +2989,20 @@
       <c r="D11">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>32</v>
       </c>
@@ -2847,8 +3012,20 @@
       <c r="D12">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>34</v>
       </c>
@@ -2858,8 +3035,20 @@
       <c r="D13">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>42</v>
       </c>
@@ -2869,8 +3058,20 @@
       <c r="D14">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>46</v>
       </c>
@@ -2880,8 +3081,20 @@
       <c r="D15">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>50</v>
       </c>
@@ -2891,8 +3104,20 @@
       <c r="D16">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>52</v>
       </c>
@@ -2901,6 +3126,18 @@
       </c>
       <c r="D17">
         <v>41</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/EVM.xlsx
+++ b/EVM.xlsx
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2144,11 +2144,11 @@
         <v>16</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="N8" s="10">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="N9" s="10">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
@@ -2285,11 +2285,11 @@
         <v>26</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="N11" s="10">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="N12" s="10">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.4">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="N13" s="10">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="N14" s="10">
         <f t="shared" si="6"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="N15" s="10">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="N16" s="10">
         <f t="shared" si="6"/>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.4">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N17" s="10">
         <f t="shared" si="6"/>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.4">

--- a/EVM.xlsx
+++ b/EVM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -304,6 +304,10 @@
     <rPh sb="2" eb="3">
       <t>ア</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPI</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -314,7 +318,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +337,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -462,7 +473,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,10 +741,10 @@
                   <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>126</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>126</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,40 +798,40 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>123</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>123</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>123</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,13 +1600,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>223837</xdr:rowOff>
     </xdr:to>
@@ -1884,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2090,14 +2101,14 @@
         <v>6</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" ref="L6:L17" si="5">L5+K6</f>
+        <f t="shared" ref="L6:L18" si="5">L5+K6</f>
         <v>10</v>
       </c>
       <c r="M6">
         <v>9</v>
       </c>
       <c r="N6" s="10">
-        <f t="shared" ref="N6:N17" si="6">N5+M6</f>
+        <f t="shared" ref="N6:N18" si="6">N5+M6</f>
         <v>11</v>
       </c>
     </row>
@@ -2564,7 +2575,7 @@
         <v>46</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f>H16*2</f>
         <v>4</v>
       </c>
       <c r="L16" s="9">
@@ -2597,9 +2608,12 @@
         <f t="shared" si="7"/>
         <v>1.7333333333333236</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <f>G16-C15</f>
+        <v>1</v>
+      </c>
       <c r="H17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
@@ -2611,18 +2625,18 @@
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M17" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.4">
@@ -2644,9 +2658,12 @@
         <f t="shared" si="7"/>
         <v>-9.7699626167013776E-15</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <f>G17-C18</f>
+        <v>0</v>
+      </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
@@ -2658,13 +2675,19 @@
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
       <c r="M18" s="12">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
@@ -2759,10 +2782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2872,7 +2895,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -2884,7 +2907,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
@@ -2895,7 +2918,7 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -2907,7 +2930,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
@@ -2918,7 +2941,7 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -2930,7 +2953,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
@@ -2941,7 +2964,7 @@
         <v>26</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -2953,7 +2976,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -2964,7 +2987,7 @@
         <v>28</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -2976,7 +2999,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -2987,7 +3010,7 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -2999,7 +3022,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
@@ -3010,7 +3033,7 @@
         <v>32</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -3022,7 +3045,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -3033,7 +3056,7 @@
         <v>34</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -3045,7 +3068,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
@@ -3056,7 +3079,7 @@
         <v>38</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
@@ -3068,7 +3091,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
@@ -3079,7 +3102,7 @@
         <v>42</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
@@ -3091,7 +3114,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
@@ -3099,10 +3122,10 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
@@ -3110,11 +3133,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -3122,10 +3145,10 @@
         <v>52</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
@@ -3133,16 +3156,26 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <f>G17/H17</f>
+        <v>0.9285714285714286</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/EVM.xlsx
+++ b/EVM.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Documents\GitHub\yabukiC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ひかる\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -494,7 +494,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -663,7 +663,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CAF2-4F9F-B8D7-6E7C4B4B5A4E}"/>
             </c:ext>
@@ -750,7 +750,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CAF2-4F9F-B8D7-6E7C4B4B5A4E}"/>
             </c:ext>
@@ -837,7 +837,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CAF2-4F9F-B8D7-6E7C4B4B5A4E}"/>
             </c:ext>
@@ -852,11 +852,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1246011968"/>
-        <c:axId val="1246015296"/>
+        <c:axId val="1090006576"/>
+        <c:axId val="1090007120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1246011968"/>
+        <c:axId val="1090006576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +898,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1246015296"/>
+        <c:crossAx val="1090007120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,7 +906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1246015296"/>
+        <c:axId val="1090007120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +957,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1246011968"/>
+        <c:crossAx val="1090006576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40"/>
@@ -1895,7 +1895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -2782,10 +2782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G20" sqref="F19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3172,6 +3172,11 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G20">
+        <v>0.92857142857142905</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EVM.xlsx
+++ b/EVM.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ひかる\Documents\GitHub\yabukiC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11235" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -310,11 +310,15 @@
     <t>CPI</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>SPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
@@ -494,7 +498,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -573,8 +577,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.7692038495188118E-2"/>
-          <c:y val="0.16708333333333336"/>
+          <c:x val="9.650918635170605E-2"/>
+          <c:y val="0.14393518518518519"/>
           <c:w val="0.90286351706036749"/>
           <c:h val="0.61498432487605714"/>
         </c:manualLayout>
@@ -663,7 +667,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CAF2-4F9F-B8D7-6E7C4B4B5A4E}"/>
             </c:ext>
@@ -750,7 +754,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CAF2-4F9F-B8D7-6E7C4B4B5A4E}"/>
             </c:ext>
@@ -837,7 +841,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CAF2-4F9F-B8D7-6E7C4B4B5A4E}"/>
             </c:ext>
@@ -862,6 +866,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>機能</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -926,6 +986,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.40513086905803442"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -972,7 +1095,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3514636920384952"/>
+          <c:y val="0.89409667541557303"/>
+          <c:w val="0.35818372703412077"/>
+          <c:h val="0.10590332458442693"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1600,7 +1732,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
@@ -2782,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G20" sqref="F19:G20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3177,6 +3309,15 @@
         <v>0.92857142857142905</v>
       </c>
     </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21">
+        <f>G17/F17</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EVM.xlsx
+++ b/EVM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Documents\GitHub\yabukiC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondo\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11235" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -312,6 +312,14 @@
   </si>
   <si>
     <t>SPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cv</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2027,7 +2035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -2914,10 +2922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3318,6 +3326,24 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22">
+        <f>G17-F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23">
+        <f>G17-H17</f>
+        <v>-12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EVM.xlsx
+++ b/EVM.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -278,18 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ac</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1人当たり</t>
     <rPh sb="1" eb="3">
       <t>ヒトア</t>
@@ -315,11 +303,70 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cv</t>
+    <t>PV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>SV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CV</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -599,11 +646,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$2</c:f>
+              <c:f>Sheet2!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pv</c:v>
+                  <c:v>PV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -620,9 +667,62 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:f>Sheet2!$G$3:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -686,11 +786,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$G$2</c:f>
+              <c:f>Sheet2!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ev</c:v>
+                  <c:v>EV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -707,9 +807,62 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$3:$G$17</c:f>
+              <c:f>Sheet2!$H$3:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -773,11 +926,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$H$2</c:f>
+              <c:f>Sheet2!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ac</c:v>
+                  <c:v>AC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -794,9 +947,62 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$3:$H$17</c:f>
+              <c:f>Sheet2!$I$3:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -930,6 +1136,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -997,7 +1204,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1017,6 +1224,11 @@
                   <a:rPr lang="ja-JP" altLang="en-US"/>
                   <a:t>時間</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(h)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1037,7 +1249,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1739,16 +1951,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>223837</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2922,425 +3134,471 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H23"/>
+  <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3">
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1">
         <f>B3*3</f>
         <v>6</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:H17" si="0">C3*3</f>
+      <c r="H3" s="1">
+        <f>C3*3</f>
         <v>6</v>
       </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
+      <c r="I3" s="1">
+        <f>D3*3</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F17" si="1">B4*3</f>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1">
+        <f>B4*3</f>
         <v>12</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
+      <c r="H4" s="1">
+        <f>C4*3</f>
         <v>12</v>
       </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
+      <c r="I4" s="1">
+        <f>D4*3</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>11</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1">
+        <f>B5*3</f>
         <v>30</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
+      <c r="H5" s="1">
+        <f>C5*3</f>
         <v>30</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
+      <c r="I5" s="1">
+        <f>D5*3</f>
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>16</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>23</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1">
+        <f>B6*3</f>
         <v>48</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
+      <c r="H6" s="1">
+        <f>C6*3</f>
         <v>48</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
+      <c r="I6" s="1">
+        <f>D6*3</f>
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>29</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
+      <c r="F7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="1">
+        <f>B7*3</f>
         <v>60</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
+      <c r="H7" s="1">
+        <f>C7*3</f>
         <v>60</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
+      <c r="I7" s="1">
+        <f>D7*3</f>
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>22</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>35</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1">
+        <f>B8*3</f>
         <v>72</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
+      <c r="H8" s="1">
+        <f>C8*3</f>
         <v>66</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
+      <c r="I8" s="1">
+        <f>D8*3</f>
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
         <v>26</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>26</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>37</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
+      <c r="F9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="1">
+        <f>B9*3</f>
         <v>78</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
+      <c r="H9" s="1">
+        <f>C9*3</f>
         <v>78</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
+      <c r="I9" s="1">
+        <f>D9*3</f>
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
         <v>28</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>28</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>38</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="1">
+        <f>B10*3</f>
         <v>84</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
+      <c r="H10" s="1">
+        <f>C10*3</f>
         <v>84</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
+      <c r="I10" s="1">
+        <f>D10*3</f>
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>30</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>40</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
+      <c r="F11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1">
+        <f>B11*3</f>
         <v>90</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
+      <c r="H11" s="1">
+        <f>C11*3</f>
         <v>90</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
+      <c r="I11" s="1">
+        <f>D11*3</f>
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
         <v>32</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>32</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>41</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1">
+        <f>B12*3</f>
         <v>96</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
+      <c r="H12" s="1">
+        <f>C12*3</f>
         <v>96</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
+      <c r="I12" s="1">
+        <f>D12*3</f>
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
         <v>34</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>34</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>42</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1">
+        <f>B13*3</f>
         <v>102</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
+      <c r="H13" s="1">
+        <f>C13*3</f>
         <v>102</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
+      <c r="I13" s="1">
+        <f>D13*3</f>
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
         <v>42</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>38</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>43</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1">
+        <f>B14*3</f>
         <v>126</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
+      <c r="H14" s="1">
+        <f>C14*3</f>
         <v>114</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
+      <c r="I14" s="1">
+        <f>D14*3</f>
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
         <v>46</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>42</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>44</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
+      <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="1">
+        <f>B15*3</f>
         <v>138</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
+      <c r="H15" s="1">
+        <f>C15*3</f>
         <v>126</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
+      <c r="I15" s="1">
+        <f>D15*3</f>
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
         <v>50</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>50</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>54</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1">
+        <f>B16*3</f>
         <v>150</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
+      <c r="H16" s="1">
+        <f>C16*3</f>
         <v>150</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
+      <c r="I16" s="1">
+        <f>D16*3</f>
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
         <v>52</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>52</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>56</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="1">
+        <f>B17*3</f>
         <v>156</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
+      <c r="H17" s="1">
+        <f>C17*3</f>
         <v>156</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
+      <c r="I17" s="1">
+        <f>D17*3</f>
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19">
-        <f>G17/H17</f>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="1">
+        <f>H17/I17</f>
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="G20">
-        <v>0.92857142857142905</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21">
-        <f>G17/F17</f>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="1">
+        <f>H17/G17</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22">
-        <f>G17-F17</f>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="1">
+        <f>H17-G17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23">
-        <f>G17-H17</f>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="1">
+        <f>H17-I17</f>
         <v>-12</v>
       </c>
     </row>

--- a/EVM.xlsx
+++ b/EVM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondo\Documents\GitHub\yabukiC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -387,6 +387,40 @@
     <t>#11</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1スプリント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>PV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -427,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +501,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,6 +593,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -584,66 +633,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>EVM</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -656,6 +646,162 @@
           <c:h val="0.61498432487605714"/>
         </c:manualLayout>
       </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>テスト</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>外部設計書</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>内部設計書</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>テスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CAF2-4F9F-B8D7-6E7C4B4B5A4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1090006576"/>
+        <c:axId val="1090007120"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -939,146 +1085,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$F$3:$F$17</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>#1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>テスト</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>外部設計書</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>内部設計書</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>テスト</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$I$3:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>168</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CAF2-4F9F-B8D7-6E7C4B4B5A4E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1087,6 +1093,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1090006576"/>
         <c:axId val="1090007120"/>
@@ -1247,7 +1254,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>時間</a:t>
+                  <a:t>コスト</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -1411,7 +1418,2889 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.650918635170605E-2"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>テスト</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>外部設計書</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>内部設計書</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>テスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-082C-42C1-8DAD-63575FC45B15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1090006576"/>
+        <c:axId val="1090007120"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$26:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-082C-42C1-8DAD-63575FC45B15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$26:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-082C-42C1-8DAD-63575FC45B15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1090006576"/>
+        <c:axId val="1090007120"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1090006576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>機能</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50840785696011825"/>
+              <c:y val="0.8839142001896686"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1090007120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1090007120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>コスト</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(h)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.40513086905803442"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1090006576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="40"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7841515297952374E-2"/>
+          <c:y val="0.8899104826329981"/>
+          <c:w val="0.35818372703412077"/>
+          <c:h val="0.10590332458442693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$26:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$26:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F261-4839-AF7E-F9AA0E1EF3C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$26:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$26:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F261-4839-AF7E-F9AA0E1EF3C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$26:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42918</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$26:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F261-4839-AF7E-F9AA0E1EF3C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="504686016"/>
+        <c:axId val="504682272"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="504686016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504682272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="days"/>
+        <c:minorUnit val="1"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="504682272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504686016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7830704024187795E-2"/>
+          <c:y val="4.1431261770244823E-2"/>
+          <c:w val="0.87154503213600065"/>
+          <c:h val="0.77343357504040811"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$J$19:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$19:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E21F-4270-99DB-DE40477E6106}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$J$19:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$19:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E21F-4270-99DB-DE40477E6106}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$M$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$J$19:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$19:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E21F-4270-99DB-DE40477E6106}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="641309296"/>
+        <c:axId val="641298896"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="641309296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>日程</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641298896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="10"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="641298896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>コスト</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="641309296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0626489709987677E-2"/>
+          <c:y val="0.91007488470720821"/>
+          <c:w val="0.28626174378379382"/>
+          <c:h val="6.3559766893545089E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.650918635170605E-2"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>テスト</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>外部設計書</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>内部設計書</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>テスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-27EE-4C67-9FFD-B39C50B02E6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1090006576"/>
+        <c:axId val="1090007120"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>テスト</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>外部設計書</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>内部設計書</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>テスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-27EE-4C67-9FFD-B39C50B02E6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>テスト</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>外部設計書</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>内部設計書</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>テスト</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27EE-4C67-9FFD-B39C50B02E6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1090006576"/>
+        <c:axId val="1090007120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1090006576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>機能</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50840785696011825"/>
+              <c:y val="0.8839142001896686"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1090007120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1090007120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>コスト</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(h)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.40513086905803442"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1090006576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="40"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7841515297952374E-2"/>
+          <c:y val="0.8899104826329981"/>
+          <c:w val="0.35818372703412077"/>
+          <c:h val="0.10590332458442693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1456,6 +4345,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1972,20 +5021,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1999,6 +7112,130 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>252411</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="グラフ 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2272,7 +7509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8:C13"/>
     </sheetView>
   </sheetViews>
@@ -3159,10 +8396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I22"/>
+  <dimension ref="B1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3211,6 +8448,9 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
@@ -3565,7 +8805,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>52</v>
       </c>
@@ -3591,7 +8831,18 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="K18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F19" s="1" t="s">
         <v>47</v>
       </c>
@@ -3599,8 +8850,20 @@
         <f>H17/I17</f>
         <v>0.9285714285714286</v>
       </c>
+      <c r="J19" s="13">
+        <v>42878</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F20" s="1" t="s">
         <v>48</v>
       </c>
@@ -3608,8 +8871,20 @@
         <f>H17/G17</f>
         <v>1</v>
       </c>
+      <c r="J20" s="13">
+        <v>42885</v>
+      </c>
+      <c r="K20">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F21" s="1" t="s">
         <v>61</v>
       </c>
@@ -3617,14 +8892,363 @@
         <f>H17-G17</f>
         <v>0</v>
       </c>
+      <c r="J21" s="13">
+        <v>42892</v>
+      </c>
+      <c r="K21">
+        <v>48</v>
+      </c>
+      <c r="L21">
+        <v>48</v>
+      </c>
+      <c r="M21">
+        <v>69</v>
+      </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G22" s="1">
         <f>H17-I17</f>
         <v>-12</v>
+      </c>
+      <c r="J22" s="13">
+        <v>42913</v>
+      </c>
+      <c r="K22">
+        <v>96</v>
+      </c>
+      <c r="L22">
+        <v>96</v>
+      </c>
+      <c r="M22">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="J23" s="13">
+        <v>42935</v>
+      </c>
+      <c r="K23">
+        <v>156</v>
+      </c>
+      <c r="L23">
+        <v>156</v>
+      </c>
+      <c r="M23">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="13">
+        <v>42881</v>
+      </c>
+      <c r="F26" s="13">
+        <v>42736</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="13">
+        <v>42881</v>
+      </c>
+      <c r="F27" s="13">
+        <v>42737</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="14">
+        <v>42885</v>
+      </c>
+      <c r="F28" s="13">
+        <v>42738</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="14">
+        <v>42892</v>
+      </c>
+      <c r="F29" s="13">
+        <v>42739</v>
+      </c>
+      <c r="G29">
+        <v>48</v>
+      </c>
+      <c r="H29">
+        <v>48</v>
+      </c>
+      <c r="I29">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="13">
+        <v>42893</v>
+      </c>
+      <c r="F30" s="13">
+        <v>42740</v>
+      </c>
+      <c r="G30">
+        <v>60</v>
+      </c>
+      <c r="H30">
+        <v>60</v>
+      </c>
+      <c r="I30">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="13">
+        <v>42894</v>
+      </c>
+      <c r="F31" s="13">
+        <v>42741</v>
+      </c>
+      <c r="G31">
+        <v>72</v>
+      </c>
+      <c r="H31">
+        <v>66</v>
+      </c>
+      <c r="I31">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="13">
+        <v>42895</v>
+      </c>
+      <c r="F32" s="13">
+        <v>42742</v>
+      </c>
+      <c r="G32">
+        <v>78</v>
+      </c>
+      <c r="H32">
+        <v>78</v>
+      </c>
+      <c r="I32">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="13">
+        <v>42896</v>
+      </c>
+      <c r="F33" s="13">
+        <v>42743</v>
+      </c>
+      <c r="G33">
+        <v>84</v>
+      </c>
+      <c r="H33">
+        <v>84</v>
+      </c>
+      <c r="I33">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="15">
+        <v>42913</v>
+      </c>
+      <c r="F34" s="13">
+        <v>42744</v>
+      </c>
+      <c r="G34">
+        <v>90</v>
+      </c>
+      <c r="H34">
+        <v>90</v>
+      </c>
+      <c r="I34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="14">
+        <v>42913</v>
+      </c>
+      <c r="F35" s="13">
+        <v>42745</v>
+      </c>
+      <c r="G35">
+        <v>96</v>
+      </c>
+      <c r="H35">
+        <v>96</v>
+      </c>
+      <c r="I35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="13">
+        <v>42915</v>
+      </c>
+      <c r="F36" s="13">
+        <v>42746</v>
+      </c>
+      <c r="G36">
+        <v>102</v>
+      </c>
+      <c r="H36">
+        <v>102</v>
+      </c>
+      <c r="I36">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="13">
+        <v>42916</v>
+      </c>
+      <c r="F37" s="13">
+        <v>42747</v>
+      </c>
+      <c r="G37">
+        <v>126</v>
+      </c>
+      <c r="H37">
+        <v>114</v>
+      </c>
+      <c r="I37">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="13">
+        <v>42917</v>
+      </c>
+      <c r="F38" s="13">
+        <v>42748</v>
+      </c>
+      <c r="G38">
+        <v>138</v>
+      </c>
+      <c r="H38">
+        <v>126</v>
+      </c>
+      <c r="I38">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="13">
+        <v>42918</v>
+      </c>
+      <c r="F39" s="13">
+        <v>42749</v>
+      </c>
+      <c r="G39">
+        <v>150</v>
+      </c>
+      <c r="H39">
+        <v>150</v>
+      </c>
+      <c r="I39">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="14">
+        <v>42935</v>
+      </c>
+      <c r="F40" s="13">
+        <v>42750</v>
+      </c>
+      <c r="G40">
+        <v>156</v>
+      </c>
+      <c r="H40">
+        <v>156</v>
+      </c>
+      <c r="I40">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/EVM.xlsx
+++ b/EVM.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="11235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -186,24 +187,6 @@
     <t>合計52</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見積*2</t>
-    <rPh sb="0" eb="2">
-      <t>ミツモリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実際*2</t>
-    <rPh sb="0" eb="2">
-      <t>ジッサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -388,10 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1スプリント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
@@ -419,6 +398,76 @@
   </si>
   <si>
     <t>AC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積*3</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際*3</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/5/23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/5/30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/6/6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/6/27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/7/19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業時間累計</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ルイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積もり時間</t>
+    <rPh sb="0" eb="2">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了時間累計</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ルイケイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -553,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,6 +649,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,7 +734,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:f>Sheet2!$F$4:$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -732,54 +787,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$3:$I$17</c:f>
+              <c:f>Sheet2!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>123</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>129</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>132</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>162</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>168</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,7 +888,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:f>Sheet2!$F$4:$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -886,54 +941,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$3:$G$17</c:f>
+              <c:f>Sheet2!$G$4:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>150</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>156</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,7 +1028,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:f>Sheet2!$F$4:$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1026,54 +1081,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$3:$H$17</c:f>
+              <c:f>Sheet2!$H$4:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>126</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>150</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>156</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,1483 +1499,6 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.650918635170605E-2"/>
-          <c:y val="0.14393518518518519"/>
-          <c:w val="0.90286351706036749"/>
-          <c:h val="0.61498432487605714"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$F$3:$F$17</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>#1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>#9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>テスト</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>#10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>#11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>外部設計書</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>内部設計書</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>テスト</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$I$3:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>168</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-082C-42C1-8DAD-63575FC45B15}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1090006576"/>
-        <c:axId val="1090007120"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$D$26:$D$40</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42885</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42892</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42893</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42894</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42895</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42896</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42915</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42917</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42918</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$G$3:$G$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>156</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-082C-42C1-8DAD-63575FC45B15}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$D$26:$D$40</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42885</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42892</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42893</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42894</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42895</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42896</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42915</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42917</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42918</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$3:$H$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>156</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-082C-42C1-8DAD-63575FC45B15}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1090006576"/>
-        <c:axId val="1090007120"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1090006576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>機能</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.50840785696011825"/>
-              <c:y val="0.8839142001896686"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1090007120"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1090007120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>コスト</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>(h)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0"/>
-              <c:y val="0.40513086905803442"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1090006576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="40"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.7841515297952374E-2"/>
-          <c:y val="0.8899104826329981"/>
-          <c:w val="0.35818372703412077"/>
-          <c:h val="0.10590332458442693"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$D$26:$D$40</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42885</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42892</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42893</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42894</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42895</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42896</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42915</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42917</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42918</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$G$26:$G$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>156</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F261-4839-AF7E-F9AA0E1EF3C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$H$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$D$26:$D$40</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42885</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42892</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42893</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42894</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42895</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42896</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42915</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42917</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42918</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$26:$H$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>156</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F261-4839-AF7E-F9AA0E1EF3C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$I$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$D$26:$D$40</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42885</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42892</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42893</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42894</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42895</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42896</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42913</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42915</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42916</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42917</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42918</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$I$26:$I$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>168</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F261-4839-AF7E-F9AA0E1EF3C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="504686016"/>
-        <c:axId val="504682272"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="504686016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="504682272"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="1"/>
-        <c:majorTimeUnit val="days"/>
-        <c:minorUnit val="1"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="504682272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="504686016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
           <c:x val="9.7830704024187795E-2"/>
           <c:y val="4.1431261770244823E-2"/>
           <c:w val="0.87154503213600065"/>
@@ -2954,31 +1532,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$J$19:$J$23</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42878</c:v>
+                  <c:v>2017/5/23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42885</c:v>
+                  <c:v>2017/5/30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42892</c:v>
+                  <c:v>2017/6/6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42913</c:v>
+                  <c:v>2017/6/27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2017/7/19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2990,16 +1579,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,31 +1624,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$J$19:$J$23</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42878</c:v>
+                  <c:v>2017/5/23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42885</c:v>
+                  <c:v>2017/5/30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42892</c:v>
+                  <c:v>2017/6/6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42913</c:v>
+                  <c:v>2017/6/27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2017/7/19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3071,16 +1671,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3116,31 +1716,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$J$19:$J$23</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42878</c:v>
+                  <c:v>2017/5/23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42885</c:v>
+                  <c:v>2017/5/30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42892</c:v>
+                  <c:v>2017/6/6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42913</c:v>
+                  <c:v>2017/6/27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2017/7/19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3152,16 +1763,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3181,11 +1792,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="641309296"/>
         <c:axId val="641298896"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="641309296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -3248,7 +1860,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3288,11 +1900,11 @@
         <c:crossAx val="641298896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="10"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:tickLblSkip val="10"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="641298896"/>
         <c:scaling>
@@ -3504,7 +2116,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3561,7 +2173,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:f>Sheet2!$F$4:$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -3614,54 +2226,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$G$3:$G$17</c:f>
+              <c:f>Sheet2!$G$4:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>126</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>150</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>156</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,7 +2327,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:f>Sheet2!$F$4:$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -3768,54 +2380,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$H$3:$H$17</c:f>
+              <c:f>Sheet2!$H$4:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>126</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>150</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>156</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3855,7 +2467,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$F$3:$F$17</c:f>
+              <c:f>Sheet2!$F$4:$F$18</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -3908,54 +2520,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$I$3:$I$17</c:f>
+              <c:f>Sheet2!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>123</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>129</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>132</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>162</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>168</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4305,6 +2917,2120 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6535-45F5-8A5D-8210E5CFB02E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6535-45F5-8A5D-8210E5CFB02E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6535-45F5-8A5D-8210E5CFB02E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1620977840"/>
+        <c:axId val="1620978672"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1620977840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620978672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1620978672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620977840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69D3-4B80-B4AC-5941C2356B71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69D3-4B80-B4AC-5941C2356B71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-69D3-4B80-B4AC-5941C2356B71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1620979088"/>
+        <c:axId val="1620965776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1620979088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620965776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1620965776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620979088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>見積もり時間</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02BA-433D-A820-C63C6E73966B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>完了時間累計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02BA-433D-A820-C63C6E73966B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>作業時間累計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>42874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$3:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-02BA-433D-A820-C63C6E73966B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1563641056"/>
+        <c:axId val="1563633984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1563641056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>作業完了日</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563633984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1563633984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>h</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8175911335900859E-2"/>
+              <c:y val="0.23720480751199838"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563641056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4505,6 +5231,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6570,7 +7336,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6678,11 +7444,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6693,11 +7454,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6729,9 +7485,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7085,20 +7838,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>195261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7112,68 +8381,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>252411</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="グラフ 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7203,7 +8410,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7211,16 +8418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7235,7 +8442,102 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>557211</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7510,7 +8812,7 @@
   <dimension ref="B1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7565,22 +8867,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
@@ -7607,27 +8909,27 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f>C4*2</f>
-        <v>2</v>
+        <f>C4*3</f>
+        <v>3</v>
       </c>
       <c r="J4" s="9">
         <f>I4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <f>H4*2</f>
-        <v>2</v>
+        <f>H4*3</f>
+        <v>3</v>
       </c>
       <c r="L4" s="9">
         <f>K4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="10">
         <f>M4</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
@@ -7654,27 +8956,27 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I18" si="2">C5*2</f>
-        <v>2</v>
+        <f t="shared" ref="I5:I18" si="2">C5*3</f>
+        <v>3</v>
       </c>
       <c r="J5" s="9">
         <f>J4+I5</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K18" si="3">H5*2</f>
-        <v>2</v>
+        <f t="shared" ref="K5:K18" si="3">H5*3</f>
+        <v>3</v>
       </c>
       <c r="L5" s="9">
         <f>L4+K5</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5" s="10">
         <f>N4+M5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
@@ -7704,26 +9006,26 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" ref="J6:J18" si="4">J5+I6</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" ref="L6:L18" si="5">L5+K6</f>
+        <v>15</v>
+      </c>
+      <c r="M6">
         <v>10</v>
-      </c>
-      <c r="M6">
-        <v>9</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" ref="N6:N18" si="6">N5+M6</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.4">
@@ -7754,26 +9056,26 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
@@ -7801,26 +9103,26 @@
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N8" s="10">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
@@ -7848,26 +9150,26 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N9" s="10">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
@@ -7895,26 +9197,26 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="9">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="10">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
@@ -7942,26 +9244,26 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="10">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
@@ -7991,26 +9293,26 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N12" s="10">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.4">
@@ -8041,26 +9343,26 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="6"/>
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
@@ -8088,26 +9390,26 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
@@ -8135,26 +9437,26 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J15" s="9">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L15" s="9">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
@@ -8182,26 +9484,26 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="K16">
-        <f>H16*2</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.4">
@@ -8231,26 +9533,26 @@
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M17" s="12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.4">
@@ -8281,26 +9583,26 @@
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="M18" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="6"/>
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.4">
@@ -8320,7 +9622,7 @@
       <c r="G19" s="7"/>
       <c r="J19" s="9"/>
       <c r="M19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.4">
@@ -8349,15 +9651,15 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>27</v>
@@ -8368,7 +9670,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
         <v>28</v>
@@ -8376,15 +9678,15 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8398,20 +9700,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8419,439 +9721,493 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G17" si="0">B3*3</f>
-        <v>6</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H17" si="1">C3*3</f>
-        <v>6</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I17" si="2">D3*3</f>
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="E3" s="13">
+        <v>42874</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="13">
+        <v>42878</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>B3*3</f>
+        <v>9</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>C3*3</f>
+        <v>9</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>D3*3</f>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="13">
+        <v>42878</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>B4*3</f>
+        <v>18</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>C4*3</f>
+        <v>18</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <f>D4*3</f>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="13">
+        <v>42881</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f>B5*3</f>
+        <v>45</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f>C5*3</f>
+        <v>45</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>69</v>
+        <f>D5*3</f>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="E7" s="13">
+        <v>42892</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>B6*3</f>
+        <v>72</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>C6*3</f>
+        <v>72</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="2"/>
-        <v>87</v>
+        <f>D6*3</f>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="E8" s="13">
+        <v>42899</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>72</v>
+        <f>B7*3</f>
+        <v>90</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>66</v>
+        <f>C7*3</f>
+        <v>90</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f>D7*3</f>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="E9" s="13">
+        <v>42902</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>78</v>
+        <f>B8*3</f>
+        <v>108</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <f>C8*3</f>
+        <v>99</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="2"/>
-        <v>111</v>
+        <f>D8*3</f>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="E10" s="13">
+        <v>42909</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>84</v>
+        <f>B9*3</f>
+        <v>117</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <f>C9*3</f>
+        <v>117</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="2"/>
-        <v>114</v>
+        <f>D9*3</f>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="E11" s="13">
+        <v>42909</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>B10*3</f>
+        <v>126</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>C10*3</f>
+        <v>126</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="2"/>
-        <v>120</v>
+        <f>D10*3</f>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="E12" s="13">
+        <v>42914</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f>B11*3</f>
+        <v>135</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <f>C11*3</f>
+        <v>135</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="2"/>
-        <v>123</v>
+        <f>D11*3</f>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="E13" s="13">
+        <v>42914</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>102</v>
+        <f>B12*3</f>
+        <v>144</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>102</v>
+        <f>C12*3</f>
+        <v>144</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="2"/>
-        <v>126</v>
+        <f>D12*3</f>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="E14" s="13">
+        <v>42916</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>126</v>
+        <f>B13*3</f>
+        <v>153</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>114</v>
+        <f>C13*3</f>
+        <v>153</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="2"/>
-        <v>129</v>
+        <f>D13*3</f>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1">
-        <v>44</v>
+        <v>66</v>
+      </c>
+      <c r="E15" s="13">
+        <v>42930</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>138</v>
+        <f>B14*3</f>
+        <v>189</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
-        <v>126</v>
+        <f>C14*3</f>
+        <v>171</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="2"/>
-        <v>132</v>
+        <f>D14*3</f>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1">
-        <v>54</v>
+        <v>79</v>
+      </c>
+      <c r="E16" s="13">
+        <v>42936</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f>B15*3</f>
+        <v>207</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f>C15*3</f>
+        <v>189</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="2"/>
-        <v>162</v>
+        <f>D15*3</f>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1">
-        <v>56</v>
+        <v>82</v>
+      </c>
+      <c r="E17" s="13">
+        <v>42936</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>156</v>
+        <f>B16*3</f>
+        <v>225</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
-        <v>156</v>
+        <f>C16*3</f>
+        <v>225</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="2"/>
-        <v>168</v>
+        <f>D16*3</f>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="E18" s="13">
+        <v>42936</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="1">
+        <f>B17*3</f>
+        <v>234</v>
+      </c>
+      <c r="H18" s="1">
+        <f>C17*3</f>
+        <v>234</v>
+      </c>
+      <c r="I18" s="1">
+        <f>D17*3</f>
+        <v>246</v>
+      </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1">
-        <f>H17/I17</f>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="J19" s="13">
-        <v>42878</v>
+        <f>H18/I18</f>
+        <v>0.95121951219512191</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -8865,95 +10221,95 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1">
-        <f>H17/G17</f>
+        <f>H18/G18</f>
         <v>1</v>
       </c>
-      <c r="J20" s="13">
-        <v>42885</v>
+      <c r="J20" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="K20">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F21" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1">
-        <f>H17-G17</f>
+        <f>H18-G18</f>
         <v>0</v>
       </c>
-      <c r="J21" s="13">
-        <v>42892</v>
+      <c r="J21" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="K21">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M21">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="F22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G22" s="1">
-        <f>H17-I17</f>
+        <f>H18-I18</f>
         <v>-12</v>
       </c>
-      <c r="J22" s="13">
-        <v>42913</v>
+      <c r="J22" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="K22">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="L22">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="M22">
-        <v>123</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="J23" s="13">
-        <v>42935</v>
+      <c r="J23" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="K23">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="L23">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="M23">
-        <v>168</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D26" s="13">
         <v>42881</v>
@@ -8973,7 +10329,7 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D27" s="13">
         <v>42881</v>
@@ -8993,7 +10349,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D28" s="14">
         <v>42885</v>
@@ -9013,7 +10369,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D29" s="14">
         <v>42892</v>
@@ -9033,7 +10389,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D30" s="13">
         <v>42893</v>
@@ -9053,7 +10409,7 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D31" s="13">
         <v>42894</v>
@@ -9073,7 +10429,7 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D32" s="13">
         <v>42895</v>
@@ -9093,7 +10449,7 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D33" s="13">
         <v>42896</v>
@@ -9113,7 +10469,7 @@
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D34" s="15">
         <v>42913</v>
@@ -9133,7 +10489,7 @@
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D35" s="14">
         <v>42913</v>
@@ -9153,7 +10509,7 @@
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D36" s="13">
         <v>42915</v>
@@ -9173,7 +10529,7 @@
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D37" s="13">
         <v>42916</v>
@@ -9233,7 +10589,7 @@
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D40" s="14">
         <v>42935</v>
@@ -9257,4 +10613,294 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="17">
+        <v>42874</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="17"/>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="17">
+        <v>42878</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="17">
+        <v>42881</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="17">
+        <v>42892</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="17">
+        <v>42899</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="17">
+        <v>42902</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1">
+        <v>108</v>
+      </c>
+      <c r="E9" s="1">
+        <v>99</v>
+      </c>
+      <c r="F9" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="17"/>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>117</v>
+      </c>
+      <c r="E10" s="1">
+        <v>117</v>
+      </c>
+      <c r="F10" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="17">
+        <v>42909</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1">
+        <v>126</v>
+      </c>
+      <c r="E11" s="1">
+        <v>126</v>
+      </c>
+      <c r="F11" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="17"/>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1">
+        <v>135</v>
+      </c>
+      <c r="E12" s="1">
+        <v>135</v>
+      </c>
+      <c r="F12" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="17">
+        <v>42914</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="1">
+        <v>144</v>
+      </c>
+      <c r="E13" s="1">
+        <v>144</v>
+      </c>
+      <c r="F13" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B14" s="17">
+        <v>42916</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1">
+        <v>153</v>
+      </c>
+      <c r="E14" s="1">
+        <v>153</v>
+      </c>
+      <c r="F14" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B15" s="17">
+        <v>42930</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1">
+        <v>189</v>
+      </c>
+      <c r="E15" s="1">
+        <v>171</v>
+      </c>
+      <c r="F15" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="17"/>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1">
+        <v>207</v>
+      </c>
+      <c r="E16" s="1">
+        <v>189</v>
+      </c>
+      <c r="F16" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="17"/>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1">
+        <v>225</v>
+      </c>
+      <c r="E17" s="1">
+        <v>225</v>
+      </c>
+      <c r="F17" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="17">
+        <v>42936</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1">
+        <v>234</v>
+      </c>
+      <c r="E18" s="1">
+        <v>234</v>
+      </c>
+      <c r="F18" s="1">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/EVM.xlsx
+++ b/EVM.xlsx
@@ -2845,8 +2845,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.7841515297952374E-2"/>
-          <c:y val="0.8899104826329981"/>
+          <c:x val="7.9782445966814926E-5"/>
+          <c:y val="0.89409677184361214"/>
           <c:w val="0.35818372703412077"/>
           <c:h val="0.10590332458442693"/>
         </c:manualLayout>
@@ -8358,16 +8358,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>195261</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8389,15 +8389,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8418,16 +8418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8480,16 +8480,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8515,16 +8515,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>557211</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>157161</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8811,7 +8811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -9700,8 +9700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9780,15 +9780,15 @@
         <v>49</v>
       </c>
       <c r="G4" s="1">
-        <f>B3*3</f>
+        <f t="shared" ref="G4:G18" si="0">B3*3</f>
         <v>9</v>
       </c>
       <c r="H4" s="1">
-        <f>C3*3</f>
+        <f t="shared" ref="H4:H18" si="1">C3*3</f>
         <v>9</v>
       </c>
       <c r="I4" s="1">
-        <f>D3*3</f>
+        <f t="shared" ref="I4:I18" si="2">D3*3</f>
         <v>9</v>
       </c>
     </row>
@@ -9809,15 +9809,15 @@
         <v>50</v>
       </c>
       <c r="G5" s="1">
-        <f>B4*3</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H5" s="1">
-        <f>C4*3</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I5" s="1">
-        <f>D4*3</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -9838,15 +9838,15 @@
         <v>51</v>
       </c>
       <c r="G6" s="1">
-        <f>B5*3</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="H6" s="1">
-        <f>C5*3</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="I6" s="1">
-        <f>D5*3</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
@@ -9867,15 +9867,15 @@
         <v>52</v>
       </c>
       <c r="G7" s="1">
-        <f>B6*3</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="H7" s="1">
-        <f>C6*3</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="I7" s="1">
-        <f>D6*3</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
     </row>
@@ -9896,15 +9896,15 @@
         <v>53</v>
       </c>
       <c r="G8" s="1">
-        <f>B7*3</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H8" s="1">
-        <f>C7*3</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="I8" s="1">
-        <f>D7*3</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
     </row>
@@ -9925,15 +9925,15 @@
         <v>54</v>
       </c>
       <c r="G9" s="1">
-        <f>B8*3</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="H9" s="1">
-        <f>C8*3</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="I9" s="1">
-        <f>D8*3</f>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
     </row>
@@ -9954,15 +9954,15 @@
         <v>55</v>
       </c>
       <c r="G10" s="1">
-        <f>B9*3</f>
+        <f t="shared" si="0"/>
         <v>117</v>
       </c>
       <c r="H10" s="1">
-        <f>C9*3</f>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="I10" s="1">
-        <f>D9*3</f>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
     </row>
@@ -9983,15 +9983,15 @@
         <v>56</v>
       </c>
       <c r="G11" s="1">
-        <f>B10*3</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="H11" s="1">
-        <f>C10*3</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="I11" s="1">
-        <f>D10*3</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
     </row>
@@ -10012,15 +10012,15 @@
         <v>57</v>
       </c>
       <c r="G12" s="1">
-        <f>B11*3</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="H12" s="1">
-        <f>C11*3</f>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="I12" s="1">
-        <f>D11*3</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
     </row>
@@ -10041,15 +10041,15 @@
         <v>60</v>
       </c>
       <c r="G13" s="1">
-        <f>B12*3</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="H13" s="1">
-        <f>C12*3</f>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="I13" s="1">
-        <f>D12*3</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
     </row>
@@ -10070,15 +10070,15 @@
         <v>64</v>
       </c>
       <c r="G14" s="1">
-        <f>B13*3</f>
+        <f t="shared" si="0"/>
         <v>153</v>
       </c>
       <c r="H14" s="1">
-        <f>C13*3</f>
+        <f t="shared" si="1"/>
         <v>153</v>
       </c>
       <c r="I14" s="1">
-        <f>D13*3</f>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
     </row>
@@ -10099,15 +10099,15 @@
         <v>65</v>
       </c>
       <c r="G15" s="1">
-        <f>B14*3</f>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
       <c r="H15" s="1">
-        <f>C14*3</f>
+        <f t="shared" si="1"/>
         <v>171</v>
       </c>
       <c r="I15" s="1">
-        <f>D14*3</f>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
     </row>
@@ -10128,15 +10128,15 @@
         <v>61</v>
       </c>
       <c r="G16" s="1">
-        <f>B15*3</f>
+        <f t="shared" si="0"/>
         <v>207</v>
       </c>
       <c r="H16" s="1">
-        <f>C15*3</f>
+        <f t="shared" si="1"/>
         <v>189</v>
       </c>
       <c r="I16" s="1">
-        <f>D15*3</f>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
     </row>
@@ -10157,15 +10157,15 @@
         <v>62</v>
       </c>
       <c r="G17" s="1">
-        <f>B16*3</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="H17" s="1">
-        <f>C16*3</f>
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="I17" s="1">
-        <f>D16*3</f>
+        <f t="shared" si="2"/>
         <v>237</v>
       </c>
     </row>
@@ -10177,15 +10177,15 @@
         <v>63</v>
       </c>
       <c r="G18" s="1">
-        <f>B17*3</f>
+        <f t="shared" si="0"/>
         <v>234</v>
       </c>
       <c r="H18" s="1">
-        <f>C17*3</f>
+        <f t="shared" si="1"/>
         <v>234</v>
       </c>
       <c r="I18" s="1">
-        <f>D17*3</f>
+        <f t="shared" si="2"/>
         <v>246</v>
       </c>
       <c r="K18" t="s">
@@ -10617,10 +10617,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F18"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10898,6 +10898,12 @@
         <v>246</v>
       </c>
     </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D20">
+        <f>E18/F18</f>
+        <v>0.95121951219512191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EVM.xlsx
+++ b/EVM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Documents\GitHub\yabukiC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondo\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -470,6 +470,22 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>PV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -602,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,6 +671,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1830,7 +1849,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1965,7 +1983,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2932,7 +2949,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3537,7 +3553,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3619,7 +3634,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4225,7 +4239,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8515,16 +8528,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>157161</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10617,15 +10630,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -10638,7 +10662,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="17">
         <v>42874</v>
       </c>
@@ -10652,8 +10676,11 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
         <v>67</v>
@@ -10667,8 +10694,12 @@
       <c r="F4" s="1">
         <v>9</v>
       </c>
+      <c r="G4" s="18">
+        <f>E4/F4</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="17">
         <v>42878</v>
       </c>
@@ -10684,8 +10715,12 @@
       <c r="F5" s="1">
         <v>9</v>
       </c>
+      <c r="G5" s="18">
+        <f t="shared" ref="G5:G18" si="0">E5/F5</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="17">
         <v>42881</v>
       </c>
@@ -10701,8 +10736,12 @@
       <c r="F6" s="1">
         <v>39</v>
       </c>
+      <c r="G6" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1538461538461537</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="17">
         <v>42892</v>
       </c>
@@ -10718,8 +10757,12 @@
       <c r="F7" s="1">
         <v>78</v>
       </c>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.92307692307692313</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="17">
         <v>42899</v>
       </c>
@@ -10735,8 +10778,12 @@
       <c r="F8" s="1">
         <v>99</v>
       </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="17">
         <v>42902</v>
       </c>
@@ -10752,8 +10799,12 @@
       <c r="F9" s="1">
         <v>129</v>
       </c>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.76744186046511631</v>
+      </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
         <v>55</v>
@@ -10767,8 +10818,12 @@
       <c r="F10" s="1">
         <v>138</v>
       </c>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
+        <v>0.84782608695652173</v>
+      </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="17">
         <v>42909</v>
       </c>
@@ -10784,8 +10839,12 @@
       <c r="F11" s="1">
         <v>144</v>
       </c>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="17"/>
       <c r="C12" s="1" t="s">
         <v>57</v>
@@ -10799,8 +10858,12 @@
       <c r="F12" s="1">
         <v>162</v>
       </c>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="17">
         <v>42914</v>
       </c>
@@ -10816,8 +10879,12 @@
       <c r="F13" s="1">
         <v>168</v>
       </c>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="17">
         <v>42916</v>
       </c>
@@ -10833,8 +10900,12 @@
       <c r="F14" s="1">
         <v>174</v>
       </c>
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.87931034482758619</v>
+      </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="17">
         <v>42930</v>
       </c>
@@ -10850,8 +10921,12 @@
       <c r="F15" s="1">
         <v>186</v>
       </c>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
+        <v>0.91935483870967738</v>
+      </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="17"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
@@ -10865,8 +10940,12 @@
       <c r="F16" s="1">
         <v>198</v>
       </c>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.95454545454545459</v>
+      </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="17"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
@@ -10880,8 +10959,12 @@
       <c r="F17" s="1">
         <v>237</v>
       </c>
+      <c r="G17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.94936708860759489</v>
+      </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="17">
         <v>42936</v>
       </c>
@@ -10897,8 +10980,12 @@
       <c r="F18" s="1">
         <v>246</v>
       </c>
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.95121951219512191</v>
+      </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D20">
         <f>E18/F18</f>
         <v>0.95121951219512191</v>
@@ -10907,6 +10994,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>